--- a/ST_Mimi.xlsx
+++ b/ST_Mimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimi/BIOSTAT620hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F11B2-57E6-CD42-985F-A002482C9ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB2E0B-3100-8C41-9A77-CAC5218B4D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{4B0A9CA7-860E-5F42-8844-3A7B02ECF7E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>5h24m</t>
-  </si>
-  <si>
-    <t>12h29m</t>
-  </si>
-  <si>
-    <t>8h9m</t>
   </si>
 </sst>
 </file>
@@ -488,7 +482,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,21 +729,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>45318</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.42569444444444443</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
